--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Complete Web Development Bookcamp\My Projects\Demo SIgn In\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6735" tabRatio="869" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6735" tabRatio="869" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="110">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>Open the Application URL (http://192.168.0.187:3000/index.html) in any supported Browser</t>
+  </si>
+  <si>
+    <t>Open the Application URL (https://arifin-113.github.io/Demo-Sign-in-Webpage/) in any supported Browser</t>
   </si>
 </sst>
 </file>
@@ -1726,8 +1729,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1908,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>73</v>
@@ -1927,7 +1930,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>86</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>88</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>89</v>
@@ -1960,7 +1963,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>102</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>91</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>92</v>
@@ -2033,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2105,7 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>81</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>84</v>
@@ -2135,7 +2138,7 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>57</v>
@@ -2170,7 +2173,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
